--- a/data/case1/13/details_14.xlsx
+++ b/data/case1/13/details_14.xlsx
@@ -64,12 +64,12 @@
     <col min="6" max="6" width="3.140625" customWidth="true"/>
     <col min="7" max="7" width="3.140625" customWidth="true"/>
     <col min="8" max="8" width="3.140625" customWidth="true"/>
-    <col min="9" max="9" width="3.140625" customWidth="true"/>
+    <col min="9" max="9" width="2.140625" customWidth="true"/>
     <col min="10" max="10" width="3.140625" customWidth="true"/>
-    <col min="11" max="11" width="2.140625" customWidth="true"/>
-    <col min="12" max="12" width="2.140625" customWidth="true"/>
+    <col min="11" max="11" width="5.7109375" customWidth="true"/>
+    <col min="12" max="12" width="5.7109375" customWidth="true"/>
     <col min="13" max="13" width="5.7109375" customWidth="true"/>
-    <col min="14" max="14" width="4.7109375" customWidth="true"/>
+    <col min="14" max="14" width="5.7109375" customWidth="true"/>
     <col min="15" max="15" width="5.7109375" customWidth="true"/>
     <col min="16" max="16" width="5.7109375" customWidth="true"/>
     <col min="17" max="17" width="5.7109375" customWidth="true"/>
@@ -80,43 +80,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="0">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F1" s="0">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="J1" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="K1" s="0">
-        <v>5</v>
+        <v>0.044999999999999998</v>
       </c>
       <c r="L1" s="0">
-        <v>2</v>
+        <v>0.019</v>
       </c>
       <c r="M1" s="0">
-        <v>0.049000000000000002</v>
+        <v>0.053000000000000005</v>
       </c>
       <c r="N1" s="0">
-        <v>0.050000000000000003</v>
+        <v>0.097000000000000003</v>
       </c>
       <c r="O1" s="0">
         <v>0.024</v>
